--- a/CurveDB.xlsx
+++ b/CurveDB.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaac\Documents\Repo Git\GitLab\SRA Software\GUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GF\Google Drive\Abachi nazionali\materiale da Gianluca\NC92Soil_rev10\x_Albarello\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28DF1CC6-D910-4B85-B216-B7C0F1EC9F28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{0225DB81-7E54-426D-A7E8-BB3BB0BF9109}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7296" firstSheet="7" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Darendeli &amp; Stokoe" sheetId="1" r:id="rId1"/>
-    <sheet name="Vucetic &amp; Dobry, PI=0" sheetId="2" r:id="rId2"/>
-    <sheet name="Vucetic &amp; Dobry, PI=15" sheetId="3" r:id="rId3"/>
-    <sheet name="Vucetic &amp; Dobry, PI=30" sheetId="4" r:id="rId4"/>
+    <sheet name="Vucetic_&amp;_Dobry_0_10m" sheetId="2" r:id="rId2"/>
+    <sheet name="Vucetic_&amp;_Dobry_10_20m" sheetId="3" r:id="rId3"/>
+    <sheet name="Vucetic_&amp;_Dobry_20_xxm" sheetId="4" r:id="rId4"/>
+    <sheet name="Seed_&amp;_Idriss_0_10m" sheetId="5" r:id="rId5"/>
+    <sheet name="Seed_&amp;_Idriss_10_20m" sheetId="6" r:id="rId6"/>
+    <sheet name="Seed_&amp;_Idriss_20_xxm" sheetId="7" r:id="rId7"/>
+    <sheet name="Rollins_0_10m" sheetId="8" r:id="rId8"/>
+    <sheet name="Rollins_10_20m" sheetId="9" r:id="rId9"/>
+    <sheet name="Rollins_20_xxm" sheetId="10" r:id="rId10"/>
+    <sheet name="GB1" sheetId="12" r:id="rId11"/>
+    <sheet name="GB2" sheetId="13" r:id="rId12"/>
+    <sheet name="LVE" sheetId="16" r:id="rId13"/>
+    <sheet name="S" sheetId="17" r:id="rId14"/>
+    <sheet name="OH_OL" sheetId="18" r:id="rId15"/>
+    <sheet name="ML_CL" sheetId="19" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="3">
   <si>
     <r>
       <t>G/G</t>
@@ -61,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,7 +432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023F6AF0-A541-4FE2-92D2-597B15A6AAE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -661,12 +672,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5C5A17-BB40-4F93-B8F7-61B1A95AD669}">
-  <dimension ref="A1:C10"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,7 +687,7 @@
     <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -695,95 +706,403 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.68000000000000305</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>3.1599999999999998E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.68199093912476405</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>1E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="B4">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.68315556385396792</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>3.16E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="B5">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>0.68398187824952505</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>0.01</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>5.4</v>
+        <v>0.68462281748899612</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>3.1600000000000003E-2</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="B7">
-        <v>0.47</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>9.8000000000000007</v>
+        <v>0.72401098887177673</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>0.1</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="B8">
-        <v>0.26</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>0.76919660671769741</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>0.316</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="B9">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>20.3</v>
+        <v>0.80833816927406543</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>1</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0.842863474279958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1E-3</v>
+      </c>
+      <c r="B11">
+        <v>0.99934699526731319</v>
+      </c>
+      <c r="C11">
+        <v>0.87374741200828099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2E-3</v>
+      </c>
+      <c r="B12">
+        <v>0.98670073383834289</v>
+      </c>
+      <c r="C12">
+        <v>1.0812183474985615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B13">
+        <v>0.96690529081923093</v>
+      </c>
+      <c r="C13">
+        <v>1.3253868568267779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B14">
+        <v>0.94747781223536698</v>
+      </c>
+      <c r="C14">
+        <v>1.4986271711876007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B15">
+        <v>0.93240868913242914</v>
+      </c>
+      <c r="C15">
+        <v>1.6330027985869879</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B16">
+        <v>0.92009631905735267</v>
+      </c>
+      <c r="C16">
+        <v>1.7427956805158171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B17">
+        <v>0.90594272658148045</v>
+      </c>
+      <c r="C17">
+        <v>1.8356242395032212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B18">
+        <v>0.88871575721891183</v>
+      </c>
+      <c r="C18">
+        <v>1.9590370938991286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="B19">
+        <v>0.87352049334273618</v>
+      </c>
+      <c r="C19">
+        <v>2.151558227766345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.01</v>
+      </c>
+      <c r="B20">
+        <v>0.8599278666233735</v>
+      </c>
+      <c r="C20">
+        <v>2.3237742504409145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.02</v>
+      </c>
+      <c r="B21">
+        <v>0.74978888039166436</v>
+      </c>
+      <c r="C21">
+        <v>3.4567513417053526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>0.03</v>
       </c>
-      <c r="C10">
-        <v>24</v>
+      <c r="B22">
+        <v>0.67148947852533525</v>
+      </c>
+      <c r="C22">
+        <v>4.1195004542711802</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.04</v>
+      </c>
+      <c r="B23">
+        <v>0.613131188040834</v>
+      </c>
+      <c r="C23">
+        <v>4.7321538004295611</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.05</v>
+      </c>
+      <c r="B24">
+        <v>0.56786498123011753</v>
+      </c>
+      <c r="C24">
+        <v>5.4250518475806402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.06</v>
+      </c>
+      <c r="B25">
+        <v>0.53087979726544243</v>
+      </c>
+      <c r="C25">
+        <v>5.991190774347964</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B26">
+        <v>0.49960926978670867</v>
+      </c>
+      <c r="C26">
+        <v>6.4698544166098806</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.08</v>
+      </c>
+      <c r="B27">
+        <v>0.47484256782717493</v>
+      </c>
+      <c r="C27">
+        <v>6.8844917235720384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.09</v>
+      </c>
+      <c r="B28">
+        <v>0.45371146290258324</v>
+      </c>
+      <c r="C28">
+        <v>7.2502277482663668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.1</v>
+      </c>
+      <c r="B29">
+        <v>0.43480904542907034</v>
+      </c>
+      <c r="C29">
+        <v>7.5773897707231175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.2</v>
+      </c>
+      <c r="B30">
+        <v>0.3139659734484499</v>
+      </c>
+      <c r="C30">
+        <v>9.6517266373469042</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.3</v>
+      </c>
+      <c r="B31">
+        <v>0.24968945834836156</v>
+      </c>
+      <c r="C31">
+        <v>10.842438960485291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.4</v>
+      </c>
+      <c r="B32">
+        <v>0.20582553565872624</v>
+      </c>
+      <c r="C32">
+        <v>11.530247427229542</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.5</v>
+      </c>
+      <c r="B33">
+        <v>0.17442386882237804</v>
+      </c>
+      <c r="C33">
+        <v>12.036451377960283</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0.6</v>
+      </c>
+      <c r="B34">
+        <v>0.1487668388530628</v>
+      </c>
+      <c r="C34">
+        <v>12.45005012105155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0.7</v>
+      </c>
+      <c r="B35">
+        <v>0.13168380717236955</v>
+      </c>
+      <c r="C35">
+        <v>12.751364548067354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.8</v>
+      </c>
+      <c r="B36">
+        <v>0.12015541592852416</v>
+      </c>
+      <c r="C36">
+        <v>12.914688806902458</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.9</v>
+      </c>
+      <c r="B37">
+        <v>0.1099866541845894</v>
+      </c>
+      <c r="C37">
+        <v>13.058751012978743</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>0.100890386840384</v>
+      </c>
+      <c r="C38">
+        <v>13.187619047619</v>
       </c>
     </row>
   </sheetData>
@@ -791,12 +1110,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9724880E-5FF9-42A7-A0E3-EA79EBC9D0A1}">
-  <dimension ref="A1:C10"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -806,7 +1125,7 @@
     <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -822,98 +1141,406 @@
         <v>1E-4</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.99863813569710214</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.2084410242171395</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>3.1599999999999998E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.99732657916300127</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>1.2207780660590775</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>1E-3</v>
+        <v>3.0000000000000003E-4</v>
       </c>
       <c r="B4">
-        <v>0.99</v>
+        <v>0.99603545173476193</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>1.2330964538041513</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>3.16E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="B5">
-        <v>0.94</v>
+        <v>0.99475854502390904</v>
       </c>
       <c r="C5">
-        <v>2.6</v>
+        <v>1.2453962656870297</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>0.01</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="B6">
-        <v>0.81</v>
+        <v>0.9934929188953141</v>
       </c>
       <c r="C6">
-        <v>4.5</v>
+        <v>1.2576775740275961</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>3.1600000000000003E-2</v>
+        <v>6.0000000000000006E-4</v>
       </c>
       <c r="B7">
-        <v>0.64</v>
+        <v>0.99223684054701666</v>
       </c>
       <c r="C7">
-        <v>7.5</v>
+        <v>1.2699404417512086</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>0.1</v>
+        <v>7.000000000000001E-4</v>
       </c>
       <c r="B8">
-        <v>0.41</v>
+        <v>0.99098916196779763</v>
       </c>
       <c r="C8">
-        <v>11.6</v>
+        <v>1.2821849298747436</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>0.316</v>
+        <v>8.0000000000000015E-4</v>
       </c>
       <c r="B9">
-        <v>0.22</v>
+        <v>0.98974906389406447</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>1.2944110964493634</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>1</v>
+        <v>9.0000000000000019E-4</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>0.98851593058427512</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>1.3066189971239668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="B11">
+        <v>0.9872892811805436</v>
+      </c>
+      <c r="C11">
+        <v>1.318808686669773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2.0000000000000005E-3</v>
+      </c>
+      <c r="B12">
+        <v>0.97531823131805573</v>
+      </c>
+      <c r="C12">
+        <v>1.4397153056007304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3.0000000000000009E-3</v>
+      </c>
+      <c r="B13">
+        <v>0.96378414919506916</v>
+      </c>
+      <c r="C13">
+        <v>1.5588553134215863</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4.000000000000001E-3</v>
+      </c>
+      <c r="B14">
+        <v>0.95261388661964275</v>
+      </c>
+      <c r="C14">
+        <v>1.6762743267001741</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="B15">
+        <v>0.94176753693603499</v>
+      </c>
+      <c r="C15">
+        <v>1.7920154128604238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6.000000000000001E-3</v>
+      </c>
+      <c r="B16">
+        <v>0.93121804114948414</v>
+      </c>
+      <c r="C16">
+        <v>1.9061196595429442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7.000000000000001E-3</v>
+      </c>
+      <c r="B17">
+        <v>0.92094489439515304</v>
+      </c>
+      <c r="C17">
+        <v>2.018626454818516</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8.0000000000000019E-3</v>
+      </c>
+      <c r="B18">
+        <v>0.91093149837503307</v>
+      </c>
+      <c r="C18">
+        <v>2.1295736620347303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>9.0000000000000028E-3</v>
+      </c>
+      <c r="B19">
+        <v>0.90116383395695987</v>
+      </c>
+      <c r="C19">
+        <v>2.2389977449494682</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1.0000000000000004E-2</v>
+      </c>
+      <c r="B20">
+        <v>0.89162971328884422</v>
+      </c>
+      <c r="C20">
+        <v>2.3469338654147975</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2.0000000000000007E-2</v>
+      </c>
+      <c r="B21">
+        <v>0.8071627080093865</v>
+      </c>
+      <c r="C21">
+        <v>3.3513971911870897</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3.0000000000000013E-2</v>
+      </c>
+      <c r="B22">
+        <v>0.73814512271583743</v>
+      </c>
+      <c r="C22">
+        <v>4.2383042159503459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4.0000000000000015E-2</v>
+      </c>
+      <c r="B23">
+        <v>0.68045421679129925</v>
+      </c>
+      <c r="C23">
+        <v>5.0288930663019018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>5.0000000000000017E-2</v>
+      </c>
+      <c r="B24">
+        <v>0.63141570653432766</v>
+      </c>
+      <c r="C24">
+        <v>5.7393058115777746</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>6.0000000000000019E-2</v>
+      </c>
+      <c r="B25">
+        <v>0.58916908929024803</v>
+      </c>
+      <c r="C25">
+        <v>6.3820894462481164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>7.0000000000000021E-2</v>
+      </c>
+      <c r="B26">
+        <v>0.55236591396076329</v>
+      </c>
+      <c r="C26">
+        <v>6.9671774637976025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>8.0000000000000029E-2</v>
+      </c>
+      <c r="B27">
+        <v>0.5199996935787583</v>
+      </c>
+      <c r="C27">
+        <v>7.5025579551074157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>9.0000000000000038E-2</v>
+      </c>
+      <c r="B28">
+        <v>0.49130163273399241</v>
+      </c>
+      <c r="C28">
+        <v>7.9947419631730634</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.10000000000000005</v>
+      </c>
+      <c r="B29">
+        <v>0.46567321336933942</v>
+      </c>
+      <c r="C29">
+        <v>8.4490998196073868</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.20000000000000009</v>
+      </c>
+      <c r="B30">
+        <v>0.30717879685313138</v>
+      </c>
+      <c r="C30">
+        <v>11.631734986954553</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="B31">
+        <v>0.22993638157385277</v>
+      </c>
+      <c r="C31">
+        <v>13.480522659591989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.40000000000000019</v>
+      </c>
+      <c r="B32">
+        <v>0.18404776752303409</v>
+      </c>
+      <c r="C32">
+        <v>14.700667780680641</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.50000000000000022</v>
+      </c>
+      <c r="B33">
+        <v>0.15358892285092893</v>
+      </c>
+      <c r="C33">
+        <v>15.568256056848453</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0.60000000000000031</v>
+      </c>
+      <c r="B34">
+        <v>0.1318741120961128</v>
+      </c>
+      <c r="C34">
+        <v>16.216276342945314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0.7000000000000004</v>
+      </c>
+      <c r="B35">
+        <v>0.11559873379594744</v>
+      </c>
+      <c r="C35">
+        <v>16.717530794169022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.80000000000000049</v>
+      </c>
+      <c r="B36">
+        <v>0.10293976633316973</v>
+      </c>
+      <c r="C36">
+        <v>17.115530745357667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.90000000000000058</v>
+      </c>
+      <c r="B37">
+        <v>9.2808322146971198E-2</v>
+      </c>
+      <c r="C37">
+        <v>17.43800957851931</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1.0000000000000007</v>
+      </c>
+      <c r="B38">
+        <v>8.4513529778024635E-2</v>
+      </c>
+      <c r="C38">
+        <v>17.703537912573793</v>
       </c>
     </row>
   </sheetData>
@@ -921,12 +1548,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4567267-5DA4-4499-BACA-C8DE056FEBD3}">
-  <dimension ref="A1:C10"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,7 +1563,7 @@
     <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -952,98 +1579,5093 @@
         <v>1E-4</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.99939055000409238</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.9009148565064744</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>3.1599999999999998E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.99880274457729445</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.90632590945706126</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>1E-3</v>
+        <v>3.0000000000000003E-4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.99822326053577715</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.91173336068819688</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>3.16E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="B5">
-        <v>0.98</v>
+        <v>0.99764934305721886</v>
       </c>
       <c r="C5">
-        <v>2.1</v>
+        <v>0.91713722021130895</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>0.01</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0.99707969329508594</v>
       </c>
       <c r="C6">
-        <v>3.8</v>
+        <v>0.92253749643917238</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>3.1600000000000003E-2</v>
+        <v>6.0000000000000006E-4</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>0.99651354939091519</v>
       </c>
       <c r="C7">
-        <v>5.9</v>
+        <v>0.92793419675817468</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>0.1</v>
+        <v>7.000000000000001E-4</v>
       </c>
       <c r="B8">
-        <v>0.53</v>
+        <v>0.99595040918005129</v>
       </c>
       <c r="C8">
-        <v>8.8000000000000007</v>
+        <v>0.93332732790002804</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>0.316</v>
+        <v>8.0000000000000015E-4</v>
       </c>
       <c r="B9">
-        <v>0.35</v>
+        <v>0.99538991626147899</v>
       </c>
       <c r="C9">
-        <v>12.5</v>
+        <v>0.93871689615785692</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>1</v>
+        <v>9.0000000000000019E-4</v>
       </c>
       <c r="B10">
+        <v>0.99483180433256457</v>
+      </c>
+      <c r="C10">
+        <v>0.94410290678533648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="B11">
+        <v>0.99427586670803891</v>
+      </c>
+      <c r="C11">
+        <v>0.94948536756558155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2.0000000000000005E-3</v>
+      </c>
+      <c r="B12">
+        <v>0.98881025861953875</v>
+      </c>
+      <c r="C12">
+        <v>1.0031157946583327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3.0000000000000009E-3</v>
+      </c>
+      <c r="B13">
+        <v>0.98347432940496338</v>
+      </c>
+      <c r="C13">
+        <v>1.0563965002025668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4.000000000000001E-3</v>
+      </c>
+      <c r="B14">
+        <v>0.97824010501278114</v>
+      </c>
+      <c r="C14">
+        <v>1.1093318790089139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="B15">
+        <v>0.97309374371865465</v>
+      </c>
+      <c r="C15">
+        <v>1.1619260661295965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6.000000000000001E-3</v>
+      </c>
+      <c r="B16">
+        <v>0.96802668698816119</v>
+      </c>
+      <c r="C16">
+        <v>1.2141830314220832</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7.000000000000001E-3</v>
+      </c>
+      <c r="B17">
+        <v>0.96303296797558768</v>
+      </c>
+      <c r="C17">
+        <v>1.2661066205351037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8.0000000000000019E-3</v>
+      </c>
+      <c r="B18">
+        <v>0.95810809714819312</v>
+      </c>
+      <c r="C18">
+        <v>1.3177005771994681</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>9.0000000000000028E-3</v>
+      </c>
+      <c r="B19">
+        <v>0.95324851358491425</v>
+      </c>
+      <c r="C19">
+        <v>1.3689685568733823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1.0000000000000004E-2</v>
+      </c>
+      <c r="B20">
+        <v>0.94845128213183361</v>
+      </c>
+      <c r="C20">
+        <v>1.4199141358604597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2.0000000000000007E-2</v>
+      </c>
+      <c r="B21">
+        <v>0.90347833025181168</v>
+      </c>
+      <c r="C21">
+        <v>1.9123779183983887</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3.0000000000000013E-2</v>
+      </c>
+      <c r="B22">
+        <v>0.86308538055922435</v>
+      </c>
+      <c r="C22">
+        <v>2.3760952388838072</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4.0000000000000015E-2</v>
+      </c>
+      <c r="B23">
+        <v>0.82644891097408235</v>
+      </c>
+      <c r="C23">
+        <v>2.8137914504023427</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>5.0000000000000017E-2</v>
+      </c>
+      <c r="B24">
+        <v>0.79299945722763288</v>
+      </c>
+      <c r="C24">
+        <v>3.2278262751370619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>6.0000000000000019E-2</v>
+      </c>
+      <c r="B25">
+        <v>0.76230123202714406</v>
+      </c>
+      <c r="C25">
+        <v>3.6202607004312939</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>7.0000000000000021E-2</v>
+      </c>
+      <c r="B26">
+        <v>0.73400546119099819</v>
+      </c>
+      <c r="C26">
+        <v>3.9929065839642428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>8.0000000000000029E-2</v>
+      </c>
+      <c r="B27">
+        <v>0.70782575136350323</v>
+      </c>
+      <c r="C27">
+        <v>4.3473655267367555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>9.0000000000000038E-2</v>
+      </c>
+      <c r="B28">
+        <v>0.68352286734008061</v>
+      </c>
+      <c r="C28">
+        <v>4.6850601219267087</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.10000000000000005</v>
+      </c>
+      <c r="B29">
+        <v>0.66089442575839352</v>
+      </c>
+      <c r="C29">
+        <v>5.007259469123194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.20000000000000009</v>
+      </c>
+      <c r="B30">
+        <v>0.49786604289128905</v>
+      </c>
+      <c r="C30">
+        <v>7.580066046930825</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="B31">
+        <v>0.40038424081088009</v>
+      </c>
+      <c r="C31">
+        <v>9.3755735285919588</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.40000000000000019</v>
+      </c>
+      <c r="B32">
+        <v>0.33529014375550925</v>
+      </c>
+      <c r="C32">
+        <v>10.712914152025583</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.50000000000000022</v>
+      </c>
+      <c r="B33">
+        <v>0.28865623137932367</v>
+      </c>
+      <c r="C33">
+        <v>11.75346668569348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0.60000000000000031</v>
+      </c>
+      <c r="B34">
+        <v>0.25356603683018331</v>
+      </c>
+      <c r="C34">
+        <v>12.588972550984362</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0.7000000000000004</v>
+      </c>
+      <c r="B35">
+        <v>0.22618496567775337</v>
+      </c>
+      <c r="C35">
+        <v>13.275995788053981</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.80000000000000049</v>
+      </c>
+      <c r="B36">
+        <v>0.2042122058084852</v>
+      </c>
+      <c r="C36">
+        <v>13.85156599306009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.90000000000000058</v>
+      </c>
+      <c r="B37">
+        <v>0.186182109356408</v>
+      </c>
+      <c r="C37">
+        <v>14.34107120197033</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1.0000000000000007</v>
+      </c>
+      <c r="B38">
+        <v>0.1711160969789782</v>
+      </c>
+      <c r="C38">
+        <v>14.762570061014681</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8.0000000000000015E-4</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9.0000000000000019E-4</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2.0000000000000005E-3</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3.0000000000000009E-3</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4.000000000000001E-3</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6.000000000000001E-3</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7.000000000000001E-3</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8.0000000000000019E-3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>9.0000000000000028E-3</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1.0000000000000004E-2</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2.0000000000000007E-2</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3.0000000000000013E-2</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4.0000000000000015E-2</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>5.0000000000000017E-2</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>6.0000000000000019E-2</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>7.0000000000000021E-2</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>8.0000000000000029E-2</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>9.0000000000000038E-2</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.10000000000000005</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.20000000000000009</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.40000000000000019</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.50000000000000022</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0.60000000000000031</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0.7000000000000004</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.80000000000000049</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.90000000000000058</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1.0000000000000007</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1E-4</v>
+      </c>
+      <c r="B2">
+        <v>0.99911000000000005</v>
+      </c>
+      <c r="C2">
+        <v>2.5045999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1.6238E-4</v>
+      </c>
+      <c r="B3">
+        <v>0.99851000000000001</v>
+      </c>
+      <c r="C3">
+        <v>2.5082</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2.6366999999999997E-4</v>
+      </c>
+      <c r="B4">
+        <v>0.99751999999999996</v>
+      </c>
+      <c r="C4">
+        <v>2.5142000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4.2812999999999998E-4</v>
+      </c>
+      <c r="B5">
+        <v>0.99585000000000001</v>
+      </c>
+      <c r="C5">
+        <v>2.5242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6.9519000000000004E-4</v>
+      </c>
+      <c r="B6">
+        <v>0.99309000000000003</v>
+      </c>
+      <c r="C6">
+        <v>2.5409000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1.1287999999999999E-3</v>
+      </c>
+      <c r="B7">
+        <v>0.98850000000000005</v>
+      </c>
+      <c r="C7">
+        <v>2.569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1.833E-3</v>
+      </c>
+      <c r="B8">
+        <v>0.98092000000000001</v>
+      </c>
+      <c r="C8">
+        <v>2.6160000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2.9764000000000001E-3</v>
+      </c>
+      <c r="B9">
+        <v>0.96850999999999998</v>
+      </c>
+      <c r="C9">
+        <v>2.6947999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4.8329000000000002E-3</v>
+      </c>
+      <c r="B10">
+        <v>0.94843999999999995</v>
+      </c>
+      <c r="C10">
+        <v>2.8273000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7.8475999999999997E-3</v>
+      </c>
+      <c r="B11">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="C11">
+        <v>3.0503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1.2743000000000001E-2</v>
+      </c>
+      <c r="B12">
+        <v>0.86812999999999996</v>
+      </c>
+      <c r="C12">
+        <v>3.4262000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2.0691000000000001E-2</v>
+      </c>
+      <c r="B13">
+        <v>0.79747999999999997</v>
+      </c>
+      <c r="C13">
+        <v>4.0568999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3.3598000000000003E-2</v>
+      </c>
+      <c r="B14">
+        <v>0.70199</v>
+      </c>
+      <c r="C14">
+        <v>5.0979000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5.4556E-2</v>
+      </c>
+      <c r="B15">
+        <v>0.58491000000000004</v>
+      </c>
+      <c r="C15">
+        <v>6.7455999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>8.8586999999999999E-2</v>
+      </c>
+      <c r="B16">
+        <v>0.45738000000000001</v>
+      </c>
+      <c r="C16">
+        <v>9.1516999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.14384</v>
+      </c>
+      <c r="B17">
+        <v>0.33521000000000001</v>
+      </c>
+      <c r="C17">
+        <v>12.257999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.23357</v>
+      </c>
+      <c r="B18">
+        <v>0.23172999999999999</v>
+      </c>
+      <c r="C18">
+        <v>15.701000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.37927</v>
+      </c>
+      <c r="B19">
+        <v>0.15285000000000001</v>
+      </c>
+      <c r="C19">
+        <v>18.960999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.61585000000000001</v>
+      </c>
+      <c r="B20">
+        <v>9.7419000000000006E-2</v>
+      </c>
+      <c r="C20">
+        <v>21.649000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>6.0650000000000003E-2</v>
+      </c>
+      <c r="C21">
+        <v>23.64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1E-4</v>
+      </c>
+      <c r="B2">
+        <v>0.99966999999999995</v>
+      </c>
+      <c r="C2">
+        <v>3.1070000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1.6238E-4</v>
+      </c>
+      <c r="B3">
+        <v>0.99944999999999995</v>
+      </c>
+      <c r="C3">
+        <v>3.1084000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2.6366999999999997E-4</v>
+      </c>
+      <c r="B4">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="C4">
+        <v>3.1107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4.2812999999999998E-4</v>
+      </c>
+      <c r="B5">
+        <v>0.99851000000000001</v>
+      </c>
+      <c r="C5">
+        <v>3.1143999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6.9519000000000004E-4</v>
+      </c>
+      <c r="B6">
+        <v>0.99753000000000003</v>
+      </c>
+      <c r="C6">
+        <v>3.1206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1.1287999999999999E-3</v>
+      </c>
+      <c r="B7">
+        <v>0.99592000000000003</v>
+      </c>
+      <c r="C7">
+        <v>3.1309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1.833E-3</v>
+      </c>
+      <c r="B8">
+        <v>0.99326000000000003</v>
+      </c>
+      <c r="C8">
+        <v>3.1478999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2.9764000000000001E-3</v>
+      </c>
+      <c r="B9">
+        <v>0.98889000000000005</v>
+      </c>
+      <c r="C9">
+        <v>3.1760999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4.8329000000000002E-3</v>
+      </c>
+      <c r="B10">
+        <v>0.98173999999999995</v>
+      </c>
+      <c r="C10">
+        <v>3.2227000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7.8475999999999997E-3</v>
+      </c>
+      <c r="B11">
+        <v>0.97013000000000005</v>
+      </c>
+      <c r="C11">
+        <v>3.2999000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1.2743000000000001E-2</v>
+      </c>
+      <c r="B12">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="C12">
+        <v>3.4276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2.0691000000000001E-2</v>
+      </c>
+      <c r="B13">
+        <v>0.92217000000000005</v>
+      </c>
+      <c r="C13">
+        <v>3.6385999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3.3598000000000003E-2</v>
+      </c>
+      <c r="B14">
+        <v>0.87741000000000002</v>
+      </c>
+      <c r="C14">
+        <v>3.9862000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5.4556E-2</v>
+      </c>
+      <c r="B15">
+        <v>0.81213999999999997</v>
+      </c>
+      <c r="C15">
+        <v>4.5533999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>8.8586999999999999E-2</v>
+      </c>
+      <c r="B16">
+        <v>0.72307999999999995</v>
+      </c>
+      <c r="C16">
+        <v>5.4595000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.14384</v>
+      </c>
+      <c r="B17">
+        <v>0.61197999999999997</v>
+      </c>
+      <c r="C17">
+        <v>6.8468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.23357</v>
+      </c>
+      <c r="B18">
+        <v>0.48787999999999998</v>
+      </c>
+      <c r="C18">
+        <v>8.8171999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.37927</v>
+      </c>
+      <c r="B19">
+        <v>0.36525000000000002</v>
+      </c>
+      <c r="C19">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.61585000000000001</v>
+      </c>
+      <c r="B20">
+        <v>0.25792999999999999</v>
+      </c>
+      <c r="C20">
+        <v>14.087999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0.17351</v>
+      </c>
+      <c r="C21">
+        <v>16.733000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1E-4</v>
+      </c>
+      <c r="B2">
+        <v>0.99948999999999999</v>
+      </c>
+      <c r="C2">
+        <v>3.0282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1.6238E-4</v>
+      </c>
+      <c r="B3">
+        <v>0.99912000000000001</v>
+      </c>
+      <c r="C3">
+        <v>3.0304000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2.6366999999999997E-4</v>
+      </c>
+      <c r="B4">
+        <v>0.99844999999999995</v>
+      </c>
+      <c r="C4">
+        <v>3.0341999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4.2812999999999998E-4</v>
+      </c>
+      <c r="B5">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="C5">
+        <v>3.0409000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6.9519000000000004E-4</v>
+      </c>
+      <c r="B6">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="C6">
+        <v>3.0526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1.1287999999999999E-3</v>
+      </c>
+      <c r="B7">
+        <v>0.99182000000000003</v>
+      </c>
+      <c r="C7">
+        <v>3.0729000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1.833E-3</v>
+      </c>
+      <c r="B8">
+        <v>0.98579000000000006</v>
+      </c>
+      <c r="C8">
+        <v>3.1084999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2.9764000000000001E-3</v>
+      </c>
+      <c r="B9">
+        <v>0.97543000000000002</v>
+      </c>
+      <c r="C9">
+        <v>3.1705999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4.8329000000000002E-3</v>
+      </c>
+      <c r="B10">
+        <v>0.95784999999999998</v>
+      </c>
+      <c r="C10">
+        <v>3.2789000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7.8475999999999997E-3</v>
+      </c>
+      <c r="B11">
+        <v>0.92859999999999998</v>
+      </c>
+      <c r="C11">
+        <v>3.4672999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1.2743000000000001E-2</v>
+      </c>
+      <c r="B12">
+        <v>0.88158000000000003</v>
+      </c>
+      <c r="C12">
+        <v>3.7930999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2.0691000000000001E-2</v>
+      </c>
+      <c r="B13">
+        <v>0.80993000000000004</v>
+      </c>
+      <c r="C13">
+        <v>4.3494000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3.3598000000000003E-2</v>
+      </c>
+      <c r="B14">
+        <v>0.70921999999999996</v>
+      </c>
+      <c r="C14">
+        <v>5.2718999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5.4556E-2</v>
+      </c>
+      <c r="B15">
+        <v>0.58264000000000005</v>
+      </c>
+      <c r="C15">
+        <v>6.7137000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>8.8586999999999999E-2</v>
+      </c>
+      <c r="B16">
+        <v>0.44414999999999999</v>
+      </c>
+      <c r="C16">
+        <v>8.7466000000000008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.14384</v>
+      </c>
+      <c r="B17">
+        <v>0.31383</v>
+      </c>
+      <c r="C17">
+        <v>11.218999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.23357</v>
+      </c>
+      <c r="B18">
+        <v>0.20746999999999999</v>
+      </c>
+      <c r="C18">
+        <v>13.746</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.37927</v>
+      </c>
+      <c r="B19">
+        <v>0.13031000000000001</v>
+      </c>
+      <c r="C19">
+        <v>15.928000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.61585000000000001</v>
+      </c>
+      <c r="B20">
+        <v>7.8991000000000006E-2</v>
+      </c>
+      <c r="C20">
+        <v>17.568999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>4.6794000000000002E-2</v>
+      </c>
+      <c r="C21">
+        <v>18.683</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="B5">
+        <v>0.99181528957954312</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B6">
+        <v>0.98406733747666808</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="B7">
+        <v>0.97773679966349125</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="B8">
+        <v>0.97238440620693367</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="B9">
+        <v>0.9677479521028749</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="B10">
+        <v>0.96365830974743949</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1E-3</v>
+      </c>
+      <c r="B11">
+        <v>0.96</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2E-3</v>
+      </c>
+      <c r="B12">
+        <v>0.91180503861151541</v>
+      </c>
+      <c r="C12">
+        <v>2.2048740347121152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B13">
+        <v>0.88361279347554789</v>
+      </c>
+      <c r="C13">
+        <v>2.9096801631113038</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B14">
+        <v>0.84316880310794395</v>
+      </c>
+      <c r="C14">
+        <v>3.4910826252274143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B15">
+        <v>0.80830301864500653</v>
+      </c>
+      <c r="C15">
+        <v>3.955959751399913</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B16">
+        <v>0.77981559848571091</v>
+      </c>
+      <c r="C16">
+        <v>4.3357920201905209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B17">
+        <v>0.75572982793120147</v>
+      </c>
+      <c r="C17">
+        <v>4.6569356275839802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B18">
+        <v>0.73486578446293738</v>
+      </c>
+      <c r="C18">
+        <v>4.9351228738275008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="B19">
+        <v>0.71646239386347799</v>
+      </c>
+      <c r="C19">
+        <v>5.1805014151536275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.01</v>
+      </c>
+      <c r="B20">
+        <v>0.7</v>
+      </c>
+      <c r="C20">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.02</v>
+      </c>
+      <c r="B21">
+        <v>0.56143948600810667</v>
+      </c>
+      <c r="C21">
+        <v>8.0507228763666543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.03</v>
+      </c>
+      <c r="B22">
+        <v>0.48038678124220002</v>
+      </c>
+      <c r="C22">
+        <v>9.6012963588448699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.04</v>
+      </c>
+      <c r="B23">
+        <v>0.42703027029260127</v>
+      </c>
+      <c r="C23">
+        <v>10.864012354659398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.05</v>
+      </c>
+      <c r="B24">
+        <v>0.38635352175250759</v>
+      </c>
+      <c r="C24">
+        <v>11.871246128033146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.06</v>
+      </c>
+      <c r="B25">
+        <v>0.35311819823332946</v>
+      </c>
+      <c r="C25">
+        <v>12.694216043746128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B26">
+        <v>0.32501813258640172</v>
+      </c>
+      <c r="C26">
+        <v>13.390027193098625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.08</v>
+      </c>
+      <c r="B27">
+        <v>0.30067674854009374</v>
+      </c>
+      <c r="C27">
+        <v>13.992766226626252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.09</v>
+      </c>
+      <c r="B28">
+        <v>0.2792061261740576</v>
+      </c>
+      <c r="C28">
+        <v>14.524419732832859</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.1</v>
+      </c>
+      <c r="B29">
+        <v>0.26</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.2</v>
+      </c>
+      <c r="B30">
+        <v>0.16963444739659134</v>
+      </c>
+      <c r="C30">
+        <v>18.192916191987106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.3</v>
+      </c>
+      <c r="B31">
+        <v>0.11677398776665224</v>
+      </c>
+      <c r="C31">
+        <v>20.060652432244954</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.4</v>
+      </c>
+      <c r="B32">
+        <v>9.3630579159086194E-2</v>
+      </c>
+      <c r="C32">
+        <v>21.057085713892263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.5</v>
+      </c>
+      <c r="B33">
+        <v>7.8134674953336231E-2</v>
+      </c>
+      <c r="C33">
+        <v>21.773771283408198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0.6</v>
+      </c>
+      <c r="B34">
+        <v>6.5473599326982629E-2</v>
+      </c>
+      <c r="C34">
+        <v>22.359346031127053</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0.7</v>
+      </c>
+      <c r="B35">
+        <v>5.4768812413867322E-2</v>
+      </c>
+      <c r="C35">
+        <v>22.854442425858636</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.8</v>
+      </c>
+      <c r="B36">
+        <v>4.5495904205749962E-2</v>
+      </c>
+      <c r="C36">
+        <v>23.283314430484065</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.9</v>
+      </c>
+      <c r="B37">
+        <v>3.7316619494879077E-2</v>
+      </c>
+      <c r="C37">
+        <v>23.661606348361843</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>0.03</v>
+      </c>
+      <c r="C38">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="B5">
+        <v>0.99795382239488573</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B6">
+        <v>0.99601683436916699</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="B7">
+        <v>0.99443419991587279</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="B8">
+        <v>0.99309610155173345</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="B9">
+        <v>0.99193698802571872</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="B10">
+        <v>0.99091457743685984</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1E-3</v>
+      </c>
+      <c r="B11">
+        <v>0.99</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2E-3</v>
+      </c>
+      <c r="B12">
+        <v>0.95987814913219704</v>
+      </c>
+      <c r="C12">
+        <v>1.9638992277696925</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B13">
+        <v>0.94225799592221737</v>
+      </c>
+      <c r="C13">
+        <v>2.5277441304890429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B14">
+        <v>0.91339969113351505</v>
+      </c>
+      <c r="C14">
+        <v>2.9887737449717031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B15">
+        <v>0.8882188467991714</v>
+      </c>
+      <c r="C15">
+        <v>3.3568014698582647</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B16">
+        <v>0.86764459890634682</v>
+      </c>
+      <c r="C16">
+        <v>3.6575020159841625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B17">
+        <v>0.85024932017253441</v>
+      </c>
+      <c r="C17">
+        <v>3.9117407051706508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B18">
+        <v>0.8351808443343437</v>
+      </c>
+      <c r="C18">
+        <v>4.1319722751134389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="B19">
+        <v>0.82188950667917859</v>
+      </c>
+      <c r="C19">
+        <v>4.3262302869966218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.01</v>
+      </c>
+      <c r="B20">
+        <v>0.81</v>
+      </c>
+      <c r="C20">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.02</v>
+      </c>
+      <c r="B21">
+        <v>0.70758570704947021</v>
+      </c>
+      <c r="C21">
+        <v>6.3073110520681732</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.03</v>
+      </c>
+      <c r="B22">
+        <v>0.64767718613553915</v>
+      </c>
+      <c r="C22">
+        <v>7.3645202446669558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.04</v>
+      </c>
+      <c r="B23">
+        <v>0.59293791508237281</v>
+      </c>
+      <c r="C23">
+        <v>8.3389328180968327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.05</v>
+      </c>
+      <c r="B24">
+        <v>0.54838719049084172</v>
+      </c>
+      <c r="C24">
+        <v>9.1330979086415187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.06</v>
+      </c>
+      <c r="B25">
+        <v>0.51198659806507507</v>
+      </c>
+      <c r="C25">
+        <v>9.7819780344921394</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B26">
+        <v>0.48121033568986854</v>
+      </c>
+      <c r="C26">
+        <v>10.330598363789299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.08</v>
+      </c>
+      <c r="B27">
+        <v>0.45455072459153117</v>
+      </c>
+      <c r="C27">
+        <v>10.805834909455314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.09</v>
+      </c>
+      <c r="B28">
+        <v>0.43103528104777739</v>
+      </c>
+      <c r="C28">
+        <v>11.225023250887446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.1</v>
+      </c>
+      <c r="B29">
+        <v>0.41</v>
+      </c>
+      <c r="C29">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.2</v>
+      </c>
+      <c r="B30">
+        <v>0.29553696670234902</v>
+      </c>
+      <c r="C30">
+        <v>14.250722876366654</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.3</v>
+      </c>
+      <c r="B31">
+        <v>0.22858038450442617</v>
+      </c>
+      <c r="C31">
+        <v>15.801296358844867</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.4</v>
+      </c>
+      <c r="B32">
+        <v>0.19544586873862929</v>
+      </c>
+      <c r="C32">
+        <v>16.81847104204569</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.5</v>
+      </c>
+      <c r="B33">
+        <v>0.17220201243000435</v>
+      </c>
+      <c r="C33">
+        <v>17.593266252333187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0.6</v>
+      </c>
+      <c r="B34">
+        <v>0.15321039899047395</v>
+      </c>
+      <c r="C34">
+        <v>18.226320033650868</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0.7</v>
+      </c>
+      <c r="B35">
+        <v>0.13715321862080099</v>
+      </c>
+      <c r="C35">
+        <v>18.761559379306632</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.8</v>
+      </c>
+      <c r="B36">
+        <v>0.12324385630862494</v>
+      </c>
+      <c r="C36">
+        <v>19.225204789712503</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.9</v>
+      </c>
+      <c r="B37">
+        <v>0.11097492924231862</v>
+      </c>
+      <c r="C37">
+        <v>19.634169025256046</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>0.1</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1E-3</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2E-3</v>
+      </c>
+      <c r="B12">
+        <v>0.98795125965287889</v>
+      </c>
+      <c r="C12">
+        <v>1.6626807190916635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B13">
+        <v>0.98090319836888695</v>
+      </c>
+      <c r="C13">
+        <v>2.0503240897112169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B14">
+        <v>0.96363057915908623</v>
+      </c>
+      <c r="C14">
+        <v>2.4478501928694185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B15">
+        <v>0.94813467495333625</v>
+      </c>
+      <c r="C15">
+        <v>2.777138157241605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B16">
+        <v>0.9354735993269826</v>
+      </c>
+      <c r="C16">
+        <v>3.0461860143016191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B17">
+        <v>0.92476881241386732</v>
+      </c>
+      <c r="C17">
+        <v>3.2736627362053192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B18">
+        <v>0.91549590420575</v>
+      </c>
+      <c r="C18">
+        <v>3.4707120356278134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="B19">
+        <v>0.90731661949487907</v>
+      </c>
+      <c r="C19">
+        <v>3.6445218357338192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.01</v>
+      </c>
+      <c r="B20">
+        <v>0.9</v>
+      </c>
+      <c r="C20">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.02</v>
+      </c>
+      <c r="B21">
+        <v>0.80963444739659129</v>
+      </c>
+      <c r="C21">
+        <v>5.0651177364477213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.03</v>
+      </c>
+      <c r="B22">
+        <v>0.75677398776665217</v>
+      </c>
+      <c r="C22">
+        <v>5.8051641712668696</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.04</v>
+      </c>
+      <c r="B23">
+        <v>0.70498409268748707</v>
+      </c>
+      <c r="C23">
+        <v>6.4933915054831255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.05</v>
+      </c>
+      <c r="B24">
+        <v>0.66237035612167461</v>
+      </c>
+      <c r="C24">
+        <v>7.0551180329415626</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.06</v>
+      </c>
+      <c r="B25">
+        <v>0.62755239814920227</v>
+      </c>
+      <c r="C25">
+        <v>7.5140820243968793</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B26">
+        <v>0.59811423413813514</v>
+      </c>
+      <c r="C26">
+        <v>7.9021305499973096</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.08</v>
+      </c>
+      <c r="B27">
+        <v>0.57261373656581249</v>
+      </c>
+      <c r="C27">
+        <v>8.2382734725415645</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.09</v>
+      </c>
+      <c r="B28">
+        <v>0.55012070361091747</v>
+      </c>
+      <c r="C28">
+        <v>8.5347725433106341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.1</v>
+      </c>
+      <c r="B29">
+        <v>0.53</v>
+      </c>
+      <c r="C29">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.2</v>
+      </c>
+      <c r="B30">
+        <v>0.42156133687590963</v>
+      </c>
+      <c r="C30">
+        <v>11.029016964217414</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.3</v>
+      </c>
+      <c r="B31">
+        <v>0.35812878531998271</v>
+      </c>
+      <c r="C31">
+        <v>12.332908301755911</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.4</v>
+      </c>
+      <c r="B32">
+        <v>0.31316880310794393</v>
+      </c>
+      <c r="C32">
+        <v>13.400318146250259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.5</v>
+      </c>
+      <c r="B33">
+        <v>0.27830301864500651</v>
+      </c>
+      <c r="C33">
+        <v>14.252592877566507</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0.6</v>
+      </c>
+      <c r="B34">
+        <v>0.24981559848571094</v>
+      </c>
+      <c r="C34">
+        <v>14.948952037015953</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0.7</v>
+      </c>
+      <c r="B35">
+        <v>0.2257298279312015</v>
+      </c>
+      <c r="C35">
+        <v>15.537715317237296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.8</v>
+      </c>
+      <c r="B36">
+        <v>0.20486578446293743</v>
+      </c>
+      <c r="C36">
+        <v>16.047725268683752</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.9</v>
+      </c>
+      <c r="B37">
+        <v>0.18646239386347793</v>
+      </c>
+      <c r="C37">
+        <v>16.49758592778165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
         <v>0.17</v>
       </c>
+      <c r="C38">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.63171818434976501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="B3">
+        <v>0.98758986842312579</v>
+      </c>
+      <c r="C3">
+        <v>1.0874540878023458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="B4">
+        <v>0.97897957371834021</v>
+      </c>
+      <c r="C4">
+        <v>1.3540425015543827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="B5">
+        <v>0.96588005802772359</v>
+      </c>
+      <c r="C5">
+        <v>1.5431899912549265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B6">
+        <v>0.95571928427220787</v>
+      </c>
+      <c r="C6">
+        <v>1.6899041824251864</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="B7">
+        <v>0.94741732762400432</v>
+      </c>
+      <c r="C7">
+        <v>1.8097784050069634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="B8">
+        <v>0.94039812329226802</v>
+      </c>
+      <c r="C8">
+        <v>1.9781062165945547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="B9">
+        <v>0.9343178119333877</v>
+      </c>
+      <c r="C9">
+        <v>2.2213116784411708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="B10">
+        <v>0.92895459722028495</v>
+      </c>
       <c r="C10">
-        <v>16.899999999999999</v>
+        <v>2.4358340991355729</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1E-3</v>
+      </c>
+      <c r="B11">
+        <v>0.92269921634648244</v>
+      </c>
+      <c r="C11">
+        <v>2.6367686894002658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2E-3</v>
+      </c>
+      <c r="B12">
+        <v>0.8658433227192166</v>
+      </c>
+      <c r="C12">
+        <v>4.4134217977807477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B13">
+        <v>0.81918715959422128</v>
+      </c>
+      <c r="C13">
+        <v>5.4526972429730103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B14">
+        <v>0.78141924800881013</v>
+      </c>
+      <c r="C14">
+        <v>6.4162549113089193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B15">
+        <v>0.74566599428678548</v>
+      </c>
+      <c r="C15">
+        <v>7.2505834241090472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B16">
+        <v>0.71645345894504064</v>
+      </c>
+      <c r="C16">
+        <v>7.9322794553652187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B17">
+        <v>0.69143575614154273</v>
+      </c>
+      <c r="C17">
+        <v>8.5086452373469932</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B18">
+        <v>0.66652321913052326</v>
+      </c>
+      <c r="C18">
+        <v>9.0079159873391035</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="B19">
+        <v>0.64454880414549609</v>
+      </c>
+      <c r="C19">
+        <v>9.4483039994215154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.01</v>
+      </c>
+      <c r="B20">
+        <v>0.62489202011714129</v>
+      </c>
+      <c r="C20">
+        <v>9.8422445001392305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.02</v>
+      </c>
+      <c r="B21">
+        <v>0.49403129670919321</v>
+      </c>
+      <c r="C21">
+        <v>12.828778930805512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.03</v>
+      </c>
+      <c r="B22">
+        <v>0.42066225233945548</v>
+      </c>
+      <c r="C22">
+        <v>14.736656025379176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.04</v>
+      </c>
+      <c r="B23">
+        <v>0.37021182445878753</v>
+      </c>
+      <c r="C23">
+        <v>16.110880071138183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.05</v>
+      </c>
+      <c r="B24">
+        <v>0.33112834755659659</v>
+      </c>
+      <c r="C24">
+        <v>17.22897934621864</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.06</v>
+      </c>
+      <c r="B25">
+        <v>0.29919482175331591</v>
+      </c>
+      <c r="C25">
+        <v>18.142532972493115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B26">
+        <v>0.27256803704886334</v>
+      </c>
+      <c r="C26">
+        <v>18.914931557856317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.08</v>
+      </c>
+      <c r="B27">
+        <v>0.25349906584703796</v>
+      </c>
+      <c r="C27">
+        <v>19.58401364611138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.09</v>
+      </c>
+      <c r="B28">
+        <v>0.23667904120076849</v>
+      </c>
+      <c r="C28">
+        <v>20.174185873848042</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.1</v>
+      </c>
+      <c r="B29">
+        <v>0.22163301644658945</v>
+      </c>
+      <c r="C29">
+        <v>20.702112921191834</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.2</v>
+      </c>
+      <c r="B30">
+        <v>0.14244150955062213</v>
+      </c>
+      <c r="C30">
+        <v>23.957973814802028</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.3</v>
+      </c>
+      <c r="B31">
+        <v>0.10794861837622362</v>
+      </c>
+      <c r="C31">
+        <v>25.072446125404429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.4</v>
+      </c>
+      <c r="B32">
+        <v>8.8002581486179898E-2</v>
+      </c>
+      <c r="C32">
+        <v>25.863176813675381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.5</v>
+      </c>
+      <c r="B33">
+        <v>7.2531233312287002E-2</v>
+      </c>
+      <c r="C33">
+        <v>26.378330040718208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0.6</v>
+      </c>
+      <c r="B34">
+        <v>6.2070710935391765E-2</v>
+      </c>
+      <c r="C34">
+        <v>26.638794665874872</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0.7</v>
+      </c>
+      <c r="B35">
+        <v>5.4305166569852389E-2</v>
+      </c>
+      <c r="C35">
+        <v>26.859014368607156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.8</v>
+      </c>
+      <c r="B36">
+        <v>4.7578346066822541E-2</v>
+      </c>
+      <c r="C36">
+        <v>27.049777352086394</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.9</v>
+      </c>
+      <c r="B37">
+        <v>4.1644869873772278E-2</v>
+      </c>
+      <c r="C37">
+        <v>27.218042228558048</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>3.6337194554832301E-2</v>
+      </c>
+      <c r="C38">
+        <v>27.368560289612901</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.62337662337661404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="B3">
+        <v>0.98991902013748989</v>
+      </c>
+      <c r="C3">
+        <v>0.85999153439979059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="B4">
+        <v>0.98373415172483447</v>
+      </c>
+      <c r="C4">
+        <v>0.99840238445982177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="B5">
+        <v>0.97934591775053248</v>
+      </c>
+      <c r="C5">
+        <v>1.1275494792201488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B6">
+        <v>0.97594213904205029</v>
+      </c>
+      <c r="C6">
+        <v>1.2871992863639405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="B7">
+        <v>0.97063974376708373</v>
+      </c>
+      <c r="C7">
+        <v>1.4176426767683719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="B8">
+        <v>0.9658172564101426</v>
+      </c>
+      <c r="C8">
+        <v>1.5279309918936095</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="B9">
+        <v>0.961639827848633</v>
+      </c>
+      <c r="C9">
+        <v>1.6234670759730843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="B10">
+        <v>0.95795507471649266</v>
+      </c>
+      <c r="C10">
+        <v>1.7077358743165949</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1E-3</v>
+      </c>
+      <c r="B11">
+        <v>0.95465895072112628</v>
+      </c>
+      <c r="C11">
+        <v>1.7975143136433387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2E-3</v>
+      </c>
+      <c r="B12">
+        <v>0.91183361978216293</v>
+      </c>
+      <c r="C12">
+        <v>2.7030004338223823</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B13">
+        <v>0.88057129306543225</v>
+      </c>
+      <c r="C13">
+        <v>3.2326758590506124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B14">
+        <v>0.85308013506590652</v>
+      </c>
+      <c r="C14">
+        <v>3.7884924122674843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B15">
+        <v>0.83175633628528411</v>
+      </c>
+      <c r="C15">
+        <v>4.2246661315285845</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B16">
+        <v>0.8127428027866167</v>
+      </c>
+      <c r="C16">
+        <v>4.5810460092348197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B17">
+        <v>0.78859769617934417</v>
+      </c>
+      <c r="C17">
+        <v>4.9265800915872244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B18">
+        <v>0.76768225348425112</v>
+      </c>
+      <c r="C18">
+        <v>5.2901971305590081</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="B19">
+        <v>0.74923352555364175</v>
+      </c>
+      <c r="C19">
+        <v>5.6109300894888232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.01</v>
+      </c>
+      <c r="B20">
+        <v>0.73273057606547753</v>
+      </c>
+      <c r="C20">
+        <v>5.8978354978354997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.02</v>
+      </c>
+      <c r="B21">
+        <v>0.60311470439598414</v>
+      </c>
+      <c r="C21">
+        <v>8.1577559169797151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.03</v>
+      </c>
+      <c r="B22">
+        <v>0.5234194166190842</v>
+      </c>
+      <c r="C22">
+        <v>9.7840125326665586</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.04</v>
+      </c>
+      <c r="B23">
+        <v>0.46664043511272563</v>
+      </c>
+      <c r="C23">
+        <v>11.086608309488398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.05</v>
+      </c>
+      <c r="B24">
+        <v>0.41949937735649506</v>
+      </c>
+      <c r="C24">
+        <v>12.102103631256538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.06</v>
+      </c>
+      <c r="B25">
+        <v>0.38098232862974407</v>
+      </c>
+      <c r="C25">
+        <v>12.997005960775292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B26">
+        <v>0.3484166279491695</v>
+      </c>
+      <c r="C26">
+        <v>13.753635099425161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.08</v>
+      </c>
+      <c r="B27">
+        <v>0.32374295139798809</v>
+      </c>
+      <c r="C27">
+        <v>14.409057071598289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.09</v>
+      </c>
+      <c r="B28">
+        <v>0.30261537201866451</v>
+      </c>
+      <c r="C28">
+        <v>14.990106271258526</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.1</v>
+      </c>
+      <c r="B29">
+        <v>0.28371610825285959</v>
+      </c>
+      <c r="C29">
+        <v>15.525974025973978</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.2</v>
+      </c>
+      <c r="B30">
+        <v>0.17741314172170553</v>
+      </c>
+      <c r="C30">
+        <v>18.937419137835544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.3</v>
+      </c>
+      <c r="B31">
+        <v>0.12733845895467547</v>
+      </c>
+      <c r="C31">
+        <v>20.79895530499557</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.4</v>
+      </c>
+      <c r="B32">
+        <v>0.10382391215538113</v>
+      </c>
+      <c r="C32">
+        <v>21.874970145046643</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.5</v>
+      </c>
+      <c r="B33">
+        <v>8.558461265499881E-2</v>
+      </c>
+      <c r="C33">
+        <v>22.672904537866231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0.6</v>
+      </c>
+      <c r="B34">
+        <v>7.0682019861455045E-2</v>
+      </c>
+      <c r="C34">
+        <v>23.27529855921583</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0.7</v>
+      </c>
+      <c r="B35">
+        <v>6.0775602007800508E-2</v>
+      </c>
+      <c r="C35">
+        <v>23.702838090480633</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.8</v>
+      </c>
+      <c r="B36">
+        <v>5.3581112345155196E-2</v>
+      </c>
+      <c r="C36">
+        <v>24.073189678133701</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.9</v>
+      </c>
+      <c r="B37">
+        <v>4.723512271822447E-2</v>
+      </c>
+      <c r="C37">
+        <v>24.320554286166395</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>4.1558441558441503E-2</v>
+      </c>
+      <c r="C38">
+        <v>24.519480519480499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.21052631578947201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="B3">
+        <v>0.99563791957424197</v>
+      </c>
+      <c r="C3">
+        <v>0.25917838311252295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="B4">
+        <v>0.9930862661000438</v>
+      </c>
+      <c r="C4">
+        <v>0.28763801807906891</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="B5">
+        <v>0.99127583914848394</v>
+      </c>
+      <c r="C5">
+        <v>0.32972106356713504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B6">
+        <v>0.98987156290727418</v>
+      </c>
+      <c r="C6">
+        <v>0.39685751836187372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="B7">
+        <v>0.98872418567428577</v>
+      </c>
+      <c r="C7">
+        <v>0.45171199604546985</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="B8">
+        <v>0.98849245732917357</v>
+      </c>
+      <c r="C8">
+        <v>0.49809079609077478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="B9">
+        <v>0.98841714311231954</v>
+      </c>
+      <c r="C9">
+        <v>0.53826594008134143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="B10">
+        <v>0.9883507112649853</v>
+      </c>
+      <c r="C10">
+        <v>0.57370292852380478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1E-3</v>
+      </c>
+      <c r="B11">
+        <v>0.98743072782557473</v>
+      </c>
+      <c r="C11">
+        <v>0.60540239487608005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2E-3</v>
+      </c>
+      <c r="B12">
+        <v>0.96696881051742867</v>
+      </c>
+      <c r="C12">
+        <v>1.0690484698388578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B13">
+        <v>0.94453007474943784</v>
+      </c>
+      <c r="C13">
+        <v>1.340264037298633</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B14">
+        <v>0.92860953835839666</v>
+      </c>
+      <c r="C14">
+        <v>1.5326945448016356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B15">
+        <v>0.91526260395461712</v>
+      </c>
+      <c r="C15">
+        <v>1.7176501746865351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B16">
+        <v>0.89513598451528342</v>
+      </c>
+      <c r="C16">
+        <v>1.9442375944034642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B17">
+        <v>0.87811917024628261</v>
+      </c>
+      <c r="C17">
+        <v>2.1358145280577903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B18">
+        <v>0.86337853523955521</v>
+      </c>
+      <c r="C18">
+        <v>2.3017660163954656</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="B19">
+        <v>0.85037637369184238</v>
+      </c>
+      <c r="C19">
+        <v>2.4481456031273177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.01</v>
+      </c>
+      <c r="B20">
+        <v>0.8378826428715126</v>
+      </c>
+      <c r="C20">
+        <v>2.5790866054023902</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.02</v>
+      </c>
+      <c r="B21">
+        <v>0.72869842297710807</v>
+      </c>
+      <c r="C21">
+        <v>3.8962174771115352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.03</v>
+      </c>
+      <c r="B22">
+        <v>0.64700168689713666</v>
+      </c>
+      <c r="C22">
+        <v>4.9788111977124778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.04</v>
+      </c>
+      <c r="B23">
+        <v>0.58397515999737437</v>
+      </c>
+      <c r="C23">
+        <v>5.7607494976751363</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.05</v>
+      </c>
+      <c r="B24">
+        <v>0.528419156264053</v>
+      </c>
+      <c r="C24">
+        <v>6.677361646414127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.06</v>
+      </c>
+      <c r="B25">
+        <v>0.48302659604775033</v>
+      </c>
+      <c r="C25">
+        <v>7.4262883034924858</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B26">
+        <v>0.44532743656442997</v>
+      </c>
+      <c r="C26">
+        <v>8.0882094211369644</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.08</v>
+      </c>
+      <c r="B27">
+        <v>0.41325828511546869</v>
+      </c>
+      <c r="C27">
+        <v>8.7212373055144479</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.09</v>
+      </c>
+      <c r="B28">
+        <v>0.38497128881936848</v>
+      </c>
+      <c r="C28">
+        <v>9.2796074715979664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.1</v>
+      </c>
+      <c r="B29">
+        <v>0.36039292344551044</v>
+      </c>
+      <c r="C29">
+        <v>9.7790866054023873</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.2</v>
+      </c>
+      <c r="B30">
+        <v>0.2417213813814558</v>
+      </c>
+      <c r="C30">
+        <v>13.156686850349894</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.3</v>
+      </c>
+      <c r="B31">
+        <v>0.18320139830734805</v>
+      </c>
+      <c r="C31">
+        <v>15.23213086744366</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.4</v>
+      </c>
+      <c r="B32">
+        <v>0.14789537084661189</v>
+      </c>
+      <c r="C32">
+        <v>16.670260765976565</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.5</v>
+      </c>
+      <c r="B33">
+        <v>0.12724199812591208</v>
+      </c>
+      <c r="C33">
+        <v>17.763164596885595</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0.6</v>
+      </c>
+      <c r="B34">
+        <v>0.11036696389209059</v>
+      </c>
+      <c r="C34">
+        <v>18.65613204633177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0.7</v>
+      </c>
+      <c r="B35">
+        <v>9.7460203162989326E-2</v>
+      </c>
+      <c r="C35">
+        <v>19.411125267189924</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.8</v>
+      </c>
+      <c r="B36">
+        <v>9.110834293449846E-2</v>
+      </c>
+      <c r="C36">
+        <v>20.02987648223036</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.9</v>
+      </c>
+      <c r="B37">
+        <v>8.5505605143240626E-2</v>
+      </c>
+      <c r="C37">
+        <v>20.514234577557467</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>8.0493785406273902E-2</v>
+      </c>
+      <c r="C38">
+        <v>20.947507658033899</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.6795238095238101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="B3">
+        <v>0.97789070438723713</v>
+      </c>
+      <c r="C3">
+        <v>1.882014848898178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="B4">
+        <v>0.96495759553641203</v>
+      </c>
+      <c r="C4">
+        <v>2.0004645136642347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="B5">
+        <v>0.95578140877447415</v>
+      </c>
+      <c r="C5">
+        <v>2.0845058882725462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B6">
+        <v>0.94828454651414062</v>
+      </c>
+      <c r="C6">
+        <v>2.1496934428100984</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="B7">
+        <v>0.94098339303242784</v>
+      </c>
+      <c r="C7">
+        <v>2.2631506723924439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="B8">
+        <v>0.93481035572120563</v>
+      </c>
+      <c r="C8">
+        <v>2.3719961330843948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="B9">
+        <v>0.9294630275756901</v>
+      </c>
+      <c r="C9">
+        <v>2.4662823598032197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="B10">
+        <v>0.92474634987728077</v>
+      </c>
+      <c r="C10">
+        <v>2.5494487058231128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1E-3</v>
+      </c>
+      <c r="B11">
+        <v>0.92052713790225604</v>
+      </c>
+      <c r="C11">
+        <v>2.6238435374149596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2E-3</v>
+      </c>
+      <c r="B12">
+        <v>0.8744923361361453</v>
+      </c>
+      <c r="C12">
+        <v>3.1761667177803647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B13">
+        <v>0.83558056197098829</v>
+      </c>
+      <c r="C13">
+        <v>3.8879349901195428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B14">
+        <v>0.80230905470080749</v>
+      </c>
+      <c r="C14">
+        <v>4.3929426161699077</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B15">
+        <v>0.76762000685741483</v>
+      </c>
+      <c r="C15">
+        <v>4.7846569630433118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B16">
+        <v>0.73927699103079281</v>
+      </c>
+      <c r="C16">
+        <v>5.1047108885090857</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B17">
+        <v>0.71531331259990849</v>
+      </c>
+      <c r="C17">
+        <v>5.409566077082447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B18">
+        <v>0.69228102782034695</v>
+      </c>
+      <c r="C18">
+        <v>5.7755403189115588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="B19">
+        <v>0.67040538597582977</v>
+      </c>
+      <c r="C19">
+        <v>6.0983524781158351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.01</v>
+      </c>
+      <c r="B20">
+        <v>0.65083695753246462</v>
+      </c>
+      <c r="C20">
+        <v>6.3871177944862119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.02</v>
+      </c>
+      <c r="B21">
+        <v>0.52298026038812395</v>
+      </c>
+      <c r="C21">
+        <v>8.2868509500799608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.03</v>
+      </c>
+      <c r="B22">
+        <v>0.44942369319520498</v>
+      </c>
+      <c r="C22">
+        <v>9.8830498823060307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.04</v>
+      </c>
+      <c r="B23">
+        <v>0.397234478218777</v>
+      </c>
+      <c r="C23">
+        <v>11.023506862421257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.05</v>
+      </c>
+      <c r="B24">
+        <v>0.35788014653709205</v>
+      </c>
+      <c r="C24">
+        <v>11.908114020924838</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.06</v>
+      </c>
+      <c r="B25">
+        <v>0.32772259804242226</v>
+      </c>
+      <c r="C25">
+        <v>12.630890696923624</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B26">
+        <v>0.30222475410052035</v>
+      </c>
+      <c r="C26">
+        <v>13.191106125567206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.08</v>
+      </c>
+      <c r="B27">
+        <v>0.28013751702637774</v>
+      </c>
+      <c r="C27">
+        <v>13.66690804037423</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.09</v>
+      </c>
+      <c r="B28">
+        <v>0.26065519320182279</v>
+      </c>
+      <c r="C28">
+        <v>14.08659507273129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.1</v>
+      </c>
+      <c r="B29">
+        <v>0.24322766068044804</v>
+      </c>
+      <c r="C29">
+        <v>14.46201791607729</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.2</v>
+      </c>
+      <c r="B30">
+        <v>0.14816156449197709</v>
+      </c>
+      <c r="C30">
+        <v>16.914940748136143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.3</v>
+      </c>
+      <c r="B31">
+        <v>0.10910407524585998</v>
+      </c>
+      <c r="C31">
+        <v>17.865769861228824</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.4</v>
+      </c>
+      <c r="B32">
+        <v>8.1751848414996733E-2</v>
+      </c>
+      <c r="C32">
+        <v>18.540393853113773</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.5</v>
+      </c>
+      <c r="B33">
+        <v>6.9108633308871598E-2</v>
+      </c>
+      <c r="C33">
+        <v>19.045055436840375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0.6</v>
+      </c>
+      <c r="B34">
+        <v>5.8778374390549948E-2</v>
+      </c>
+      <c r="C34">
+        <v>19.308263142596228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0.7</v>
+      </c>
+      <c r="B35">
+        <v>5.0044264924544758E-2</v>
+      </c>
+      <c r="C35">
+        <v>19.530802086929022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.8</v>
+      </c>
+      <c r="B36">
+        <v>4.4446751682119645E-2</v>
+      </c>
+      <c r="C36">
+        <v>19.723574088864069</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.9</v>
+      </c>
+      <c r="B37">
+        <v>4.1442161771375295E-2</v>
+      </c>
+      <c r="C37">
+        <v>19.893611045202217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>3.8754464510287003E-2</v>
+      </c>
+      <c r="C38">
+        <v>20.045714285714201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.10904761904761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="B3">
+        <v>0.99477227896662446</v>
+      </c>
+      <c r="C3">
+        <v>1.2103864204979877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="B4">
+        <v>0.9917142581978684</v>
+      </c>
+      <c r="C4">
+        <v>1.2696658192144854</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="B5">
+        <v>0.9895445579332488</v>
+      </c>
+      <c r="C5">
+        <v>1.3117252219483655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B6">
+        <v>0.9860379341590958</v>
+      </c>
+      <c r="C6">
+        <v>1.3443490292374545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="B7">
+        <v>0.98210632721248681</v>
+      </c>
+      <c r="C7">
+        <v>1.4255818304512857</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="B8">
+        <v>0.97878220090350487</v>
+      </c>
+      <c r="C8">
+        <v>1.5109509772790291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="B9">
+        <v>0.97590271171931453</v>
+      </c>
+      <c r="C9">
+        <v>1.5849010959281991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="B10">
+        <v>0.9733628222552142</v>
+      </c>
+      <c r="C10">
+        <v>1.6501297233726893</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1E-3</v>
+      </c>
+      <c r="B11">
+        <v>0.96951892281637153</v>
+      </c>
+      <c r="C11">
+        <v>1.7084787189211945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2E-3</v>
+      </c>
+      <c r="B12">
+        <v>0.93935097610959262</v>
+      </c>
+      <c r="C12">
+        <v>2.1096574070601228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B13">
+        <v>0.90797775433899564</v>
+      </c>
+      <c r="C13">
+        <v>2.5243743513090964</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B14">
+        <v>0.88276811724121407</v>
+      </c>
+      <c r="C14">
+        <v>2.8186207059685149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B15">
+        <v>0.86321400355801159</v>
+      </c>
+      <c r="C15">
+        <v>3.046855910131153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B16">
+        <v>0.84538238800832732</v>
+      </c>
+      <c r="C16">
+        <v>3.2333376502174884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B17">
+        <v>0.82089726079936509</v>
+      </c>
+      <c r="C17">
+        <v>3.3910057149004018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B18">
+        <v>0.79968727886178848</v>
+      </c>
+      <c r="C18">
+        <v>3.6162732441521768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="B19">
+        <v>0.7809787489069675</v>
+      </c>
+      <c r="C19">
+        <v>3.8982490100940979</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.01</v>
+      </c>
+      <c r="B20">
+        <v>0.76424339858885915</v>
+      </c>
+      <c r="C20">
+        <v>4.150484927916116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.02</v>
+      </c>
+      <c r="B21">
+        <v>0.63942874635553282</v>
+      </c>
+      <c r="C21">
+        <v>5.8098979839616014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.03</v>
+      </c>
+      <c r="B22">
+        <v>0.55844227962653559</v>
+      </c>
+      <c r="C22">
+        <v>6.9009238454831276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.04</v>
+      </c>
+      <c r="B23">
+        <v>0.50170095480226995</v>
+      </c>
+      <c r="C23">
+        <v>7.8528380291653894</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.05</v>
+      </c>
+      <c r="B24">
+        <v>0.45768896399710091</v>
+      </c>
+      <c r="C24">
+        <v>8.5912000330362766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.06</v>
+      </c>
+      <c r="B25">
+        <v>0.42172854912541813</v>
+      </c>
+      <c r="C25">
+        <v>9.1944857172086412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B26">
+        <v>0.39135547252069747</v>
+      </c>
+      <c r="C26">
+        <v>9.704556495346635</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.08</v>
+      </c>
+      <c r="B27">
+        <v>0.36835922446794156</v>
+      </c>
+      <c r="C27">
+        <v>10.146399900890904</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.09</v>
+      </c>
+      <c r="B28">
+        <v>0.34807509613583448</v>
+      </c>
+      <c r="C28">
+        <v>10.548174727252549</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.1</v>
+      </c>
+      <c r="B29">
+        <v>0.32993032504184461</v>
+      </c>
+      <c r="C29">
+        <v>10.912893772893691</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.2</v>
+      </c>
+      <c r="B30">
+        <v>0.21682318924758953</v>
+      </c>
+      <c r="C30">
+        <v>13.312312346391273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.3</v>
+      </c>
+      <c r="B31">
+        <v>0.16109496586025324</v>
+      </c>
+      <c r="C31">
+        <v>14.632442851685688</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.4</v>
+      </c>
+      <c r="B32">
+        <v>0.12700549189828436</v>
+      </c>
+      <c r="C32">
+        <v>15.347460210110667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.5</v>
+      </c>
+      <c r="B33">
+        <v>0.10543987775761643</v>
+      </c>
+      <c r="C33">
+        <v>15.902070760745508</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0.6</v>
+      </c>
+      <c r="B34">
+        <v>8.7819488012148048E-2</v>
+      </c>
+      <c r="C34">
+        <v>16.338071191864586</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0.7</v>
+      </c>
+      <c r="B35">
+        <v>7.7412659718046367E-2</v>
+      </c>
+      <c r="C35">
+        <v>16.580354811480124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.8</v>
+      </c>
+      <c r="B36">
+        <v>6.9482401726000551E-2</v>
+      </c>
+      <c r="C36">
+        <v>16.790230429113642</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.9</v>
+      </c>
+      <c r="B37">
+        <v>6.2487418437929036E-2</v>
+      </c>
+      <c r="C37">
+        <v>16.975353843685106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>5.6230192665627003E-2</v>
+      </c>
+      <c r="C38">
+        <v>17.140952380952299</v>
       </c>
     </row>
   </sheetData>
